--- a/MainTop/22.07.2025 имена/имена_print_sorted_X2.xlsx
+++ b/MainTop/22.07.2025 имена/имена_print_sorted_X2.xlsx
@@ -5,22 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\22.07.2025 имена\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\22.07.2025 имена\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADF648A-0242-468F-BB4B-C8484FCB72A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6744324-EB26-451F-8B76-D4A38EF3E25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="112">
   <si>
     <t>Артикул</t>
   </si>
@@ -31,16 +42,10 @@
     <t>Num_Copies</t>
   </si>
   <si>
-    <t>Тип упорядочить</t>
-  </si>
-  <si>
     <t>Имя папки</t>
   </si>
   <si>
     <t>Термобирки Максим</t>
-  </si>
-  <si>
-    <t>4_имена</t>
   </si>
   <si>
     <t>22.07.2025 имена</t>
@@ -423,12 +428,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -731,18 +737,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,21 +759,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>3.68</v>
@@ -773,19 +779,16 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3">
         <f>C2*2</f>
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>3.29</v>
@@ -794,19 +797,16 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E66" si="0">C3*2</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">C3*2</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>2.1800000000000002</v>
@@ -815,19 +815,16 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
         <v>2.04</v>
@@ -836,19 +833,16 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
         <v>1.68</v>
@@ -857,19 +851,16 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2">
         <v>1.89</v>
@@ -878,19 +869,16 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
         <v>1.61</v>
@@ -899,19 +887,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
         <v>1.86</v>
@@ -920,19 +905,16 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2">
         <v>1.5</v>
@@ -941,19 +923,16 @@
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2">
         <v>1.1399999999999999</v>
@@ -962,19 +941,16 @@
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2">
         <v>1.54</v>
@@ -983,19 +959,16 @@
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2">
         <v>1.32</v>
@@ -1004,19 +977,16 @@
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2">
         <v>1.29</v>
@@ -1025,19 +995,16 @@
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2">
         <v>1.43</v>
@@ -1046,19 +1013,16 @@
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2">
         <v>1.1399999999999999</v>
@@ -1067,19 +1031,16 @@
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2">
         <v>1.5</v>
@@ -1088,19 +1049,16 @@
         <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2">
         <v>1.57</v>
@@ -1109,19 +1067,16 @@
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2">
         <v>1.21</v>
@@ -1130,19 +1085,16 @@
         <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2">
         <v>1.39</v>
@@ -1151,19 +1103,16 @@
         <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2">
         <v>1.54</v>
@@ -1172,19 +1121,16 @@
         <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2">
         <v>1.46</v>
@@ -1193,19 +1139,16 @@
         <v>3</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2">
         <v>1.07</v>
@@ -1214,19 +1157,16 @@
         <v>3</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2">
         <v>1.32</v>
@@ -1235,19 +1175,16 @@
         <v>3</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2">
         <v>1.07</v>
@@ -1256,19 +1193,16 @@
         <v>3</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" s="2">
         <v>1.18</v>
@@ -1277,19 +1211,16 @@
         <v>3</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2">
         <v>1.1399999999999999</v>
@@ -1298,19 +1229,16 @@
         <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2">
         <v>1.07</v>
@@ -1319,19 +1247,16 @@
         <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2">
         <v>1.07</v>
@@ -1340,19 +1265,16 @@
         <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2">
         <v>1.46</v>
@@ -1361,19 +1283,16 @@
         <v>3</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2">
         <v>0.79</v>
@@ -1382,19 +1301,16 @@
         <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2">
         <v>0.61</v>
@@ -1403,19 +1319,16 @@
         <v>2</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2">
         <v>0.82</v>
@@ -1424,19 +1337,16 @@
         <v>2</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
@@ -1445,19 +1355,16 @@
         <v>2</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2">
         <v>0.64</v>
@@ -1466,19 +1373,16 @@
         <v>2</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2">
         <v>0.71</v>
@@ -1487,19 +1391,16 @@
         <v>2</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2">
         <v>0.54</v>
@@ -1508,19 +1409,16 @@
         <v>2</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2">
         <v>0.64</v>
@@ -1529,19 +1427,16 @@
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2">
         <v>0.86</v>
@@ -1550,19 +1445,16 @@
         <v>2</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2">
         <v>0.79</v>
@@ -1571,19 +1463,16 @@
         <v>2</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2">
         <v>0.96</v>
@@ -1592,19 +1481,16 @@
         <v>2</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2">
         <v>0.96</v>
@@ -1613,19 +1499,16 @@
         <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B43" s="2">
         <v>0.79</v>
@@ -1634,19 +1517,16 @@
         <v>2</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2">
         <v>0.54</v>
@@ -1655,19 +1535,16 @@
         <v>2</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B45" s="2">
         <v>1.04</v>
@@ -1676,19 +1553,16 @@
         <v>2</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B46" s="2">
         <v>0.86</v>
@@ -1697,19 +1571,16 @@
         <v>2</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B47" s="2">
         <v>0.54</v>
@@ -1718,19 +1589,16 @@
         <v>2</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B48" s="2">
         <v>0.68</v>
@@ -1739,19 +1607,16 @@
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B49" s="2">
         <v>0.54</v>
@@ -1760,19 +1625,16 @@
         <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B50" s="2">
         <v>0.79</v>
@@ -1781,19 +1643,16 @@
         <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B51" s="2">
         <v>0.75</v>
@@ -1802,19 +1661,16 @@
         <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B52" s="2">
         <v>0.54</v>
@@ -1823,19 +1679,16 @@
         <v>2</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B53" s="2">
         <v>0.82</v>
@@ -1844,19 +1697,16 @@
         <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B54" s="2">
         <v>0.61</v>
@@ -1865,19 +1715,16 @@
         <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B55" s="2">
         <v>0.39</v>
@@ -1886,19 +1733,16 @@
         <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B56" s="2">
         <v>0.39</v>
@@ -1907,19 +1751,16 @@
         <v>2</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E56" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B57" s="2">
         <v>0.46</v>
@@ -1928,19 +1769,16 @@
         <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B58" s="2">
         <v>0.44</v>
@@ -1949,19 +1787,16 @@
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B59" s="2">
         <v>0.14000000000000001</v>
@@ -1970,19 +1805,16 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B60" s="2">
         <v>0.18</v>
@@ -1991,19 +1823,16 @@
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B61" s="2">
         <v>0.18</v>
@@ -2012,19 +1841,16 @@
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B62" s="2">
         <v>0.18</v>
@@ -2033,19 +1859,16 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B63" s="2">
         <v>0.04</v>
@@ -2054,19 +1877,16 @@
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B64" s="2">
         <v>0.14000000000000001</v>
@@ -2075,19 +1895,16 @@
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B65" s="2">
         <v>0.32</v>
@@ -2096,19 +1913,16 @@
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E65" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B66" s="2">
         <v>0.11</v>
@@ -2117,19 +1931,16 @@
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B67" s="2">
         <v>0.21</v>
@@ -2138,19 +1949,16 @@
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67">
-        <f t="shared" ref="F67:F107" si="1">C67*2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E67" s="3">
+        <f t="shared" ref="E67:E107" si="1">C67*2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B68" s="2">
         <v>0.04</v>
@@ -2159,19 +1967,16 @@
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E68" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B69" s="2">
         <v>0.32</v>
@@ -2180,19 +1985,16 @@
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B70" s="2">
         <v>7.0000000000000007E-2</v>
@@ -2201,19 +2003,16 @@
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E70" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B71" s="2">
         <v>0.39</v>
@@ -2222,19 +2021,16 @@
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E71" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B72" s="2">
         <v>0.11</v>
@@ -2243,19 +2039,16 @@
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B73" s="2">
         <v>7.0000000000000007E-2</v>
@@ -2264,19 +2057,16 @@
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E73" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B74" s="2">
         <v>0.28999999999999998</v>
@@ -2285,19 +2075,16 @@
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E74" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B75" s="2">
         <v>0.28999999999999998</v>
@@ -2306,19 +2093,16 @@
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E75" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B76" s="2">
         <v>0.14000000000000001</v>
@@ -2327,19 +2111,16 @@
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E76" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B77" s="2">
         <v>0.14000000000000001</v>
@@ -2348,19 +2129,16 @@
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E77" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B78" s="2">
         <v>0.18</v>
@@ -2369,19 +2147,16 @@
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E78" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B79" s="2">
         <v>0.39</v>
@@ -2390,19 +2165,16 @@
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E79" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B80" s="2">
         <v>0.25</v>
@@ -2411,19 +2183,16 @@
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E80" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B81" s="2">
         <v>0.25</v>
@@ -2432,19 +2201,16 @@
         <v>1</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B82" s="2">
         <v>0.04</v>
@@ -2453,19 +2219,16 @@
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E82" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B83" s="2">
         <v>0.36</v>
@@ -2474,19 +2237,16 @@
         <v>1</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F83">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B84" s="2">
         <v>0.5</v>
@@ -2495,19 +2255,16 @@
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E84" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B85" s="2">
         <v>0.11</v>
@@ -2516,19 +2273,16 @@
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E85" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2">
         <v>0.39</v>
@@ -2537,19 +2291,16 @@
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F86">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E86" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B87" s="2">
         <v>0.39</v>
@@ -2558,19 +2309,16 @@
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E87" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B88" s="2">
         <v>0.11</v>
@@ -2579,19 +2327,16 @@
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F88">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E88" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B89" s="2">
         <v>0.17</v>
@@ -2600,19 +2345,16 @@
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F89">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B90" s="2">
         <v>0.28000000000000003</v>
@@ -2621,19 +2363,16 @@
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E90" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B91" s="2">
         <v>0.5</v>
@@ -2642,19 +2381,16 @@
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F91">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B92" s="2">
         <v>0.11</v>
@@ -2663,19 +2399,16 @@
         <v>1</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F92">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E92" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B93" s="2">
         <v>0.06</v>
@@ -2684,19 +2417,16 @@
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F93">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E93" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B94" s="2">
         <v>0.28000000000000003</v>
@@ -2705,19 +2435,16 @@
         <v>1</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F94">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B95" s="2">
         <v>0.17</v>
@@ -2726,19 +2453,16 @@
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F95">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E95" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B96" s="2">
         <v>0.17</v>
@@ -2747,19 +2471,16 @@
         <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F96">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E96" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B97" s="2">
         <v>0.39</v>
@@ -2768,19 +2489,16 @@
         <v>1</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F97">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E97" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B98" s="2">
         <v>0.5</v>
@@ -2789,19 +2507,16 @@
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F98">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E98" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B99" s="2">
         <v>0.17</v>
@@ -2810,19 +2525,16 @@
         <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E99" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B100" s="2">
         <v>0.11</v>
@@ -2831,19 +2543,16 @@
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F100">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B101" s="2">
         <v>0.33</v>
@@ -2852,19 +2561,16 @@
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F101">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E101" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B102" s="2">
         <v>0.17</v>
@@ -2873,19 +2579,16 @@
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F102">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B103" s="2">
         <v>0.28000000000000003</v>
@@ -2894,19 +2597,16 @@
         <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F103">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E103" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B104" s="2">
         <v>0.39</v>
@@ -2915,19 +2615,16 @@
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F104">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E104" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B105" s="2">
         <v>0.17</v>
@@ -2936,19 +2633,16 @@
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F105">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E105" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B106" s="2">
         <v>0.17</v>
@@ -2957,19 +2651,16 @@
         <v>1</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F106">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E106" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2">
         <v>0.17</v>
@@ -2978,17 +2669,15 @@
         <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F107">
+        <v>5</v>
+      </c>
+      <c r="E107" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>